--- a/table/example.xlsx
+++ b/table/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>IntColumn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>column with date value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column with int value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,137 +470,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
-    <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>43442</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>43443</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>43453</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>43412</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>43381</v>
       </c>
     </row>

--- a/table/example.xlsx
+++ b/table/example.xlsx
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>four;fority-one;fority-two;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>column with int value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four;fority_one;fority_two;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -502,12 +502,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -522,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -536,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>43442</v>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -599,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>43412</v>
